--- a/Tabla de estados.xlsx
+++ b/Tabla de estados.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AH$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$3:$AH$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -155,9 +155,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>Invalido 38</t>
-  </si>
-  <si>
     <t>OpAdicion</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Guradar token como</t>
+  </si>
+  <si>
+    <t>Punto</t>
   </si>
 </sst>
 </file>
@@ -302,11 +302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -593,7 +593,10 @@
   <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="A8:AH8"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,39 +611,39 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -654,106 +657,106 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -854,125 +857,117 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
-      <c r="F4" s="10">
-        <v>40</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4" s="9">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9">
         <v>6</v>
       </c>
-      <c r="H4" s="10">
-        <v>40</v>
-      </c>
-      <c r="I4" s="10">
-        <v>40</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="H4" s="9">
+        <v>40</v>
+      </c>
+      <c r="I4" s="9">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9">
         <v>17</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>11</v>
       </c>
-      <c r="L4" s="10">
-        <v>40</v>
-      </c>
-      <c r="M4" s="10">
-        <v>40</v>
-      </c>
-      <c r="N4" s="10">
-        <v>40</v>
-      </c>
-      <c r="O4" s="10">
-        <v>40</v>
-      </c>
-      <c r="P4" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>40</v>
-      </c>
-      <c r="R4" s="10">
-        <v>40</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="L4" s="9">
+        <v>40</v>
+      </c>
+      <c r="M4" s="9">
+        <v>40</v>
+      </c>
+      <c r="N4" s="9">
+        <v>40</v>
+      </c>
+      <c r="O4" s="9">
+        <v>40</v>
+      </c>
+      <c r="P4" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>40</v>
+      </c>
+      <c r="R4" s="9">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9">
         <v>40</v>
       </c>
       <c r="T4" s="6">
         <v>0</v>
       </c>
-      <c r="U4" s="10">
-        <v>40</v>
-      </c>
-      <c r="V4" s="10">
+      <c r="U4" s="9">
+        <v>40</v>
+      </c>
+      <c r="V4" s="9">
         <v>23</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <v>24</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <v>25</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>33</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="9">
         <v>31</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>29</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>27</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <v>36</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="9">
         <v>37</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="9">
         <v>34</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="9">
         <v>39</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="9">
         <v>35</v>
       </c>
-      <c r="AH4" s="10">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
+      <c r="AH4" s="9">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="6">
@@ -1056,7 +1051,7 @@
       <c r="AE5" s="6">
         <v>34</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="9">
         <v>2</v>
       </c>
       <c r="AG5" s="6">
@@ -1070,13 +1065,13 @@
       <c r="A6" s="6">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="E6" s="6">
@@ -1169,18 +1164,26 @@
       <c r="AH6" s="6">
         <v>38</v>
       </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
       <c r="E7" s="6">
@@ -1278,64 +1281,64 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="10">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="9">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9">
         <v>5</v>
       </c>
-      <c r="G8" s="10">
-        <v>40</v>
-      </c>
-      <c r="H8" s="10">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10">
-        <v>40</v>
-      </c>
-      <c r="K8" s="10">
-        <v>40</v>
-      </c>
-      <c r="L8" s="10">
-        <v>40</v>
-      </c>
-      <c r="M8" s="10">
-        <v>40</v>
-      </c>
-      <c r="N8" s="10">
-        <v>40</v>
-      </c>
-      <c r="O8" s="10">
-        <v>40</v>
-      </c>
-      <c r="P8" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>40</v>
-      </c>
-      <c r="R8" s="10">
-        <v>40</v>
-      </c>
-      <c r="S8" s="10">
+      <c r="G8" s="9">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9">
+        <v>40</v>
+      </c>
+      <c r="J8" s="9">
+        <v>40</v>
+      </c>
+      <c r="K8" s="9">
+        <v>40</v>
+      </c>
+      <c r="L8" s="9">
+        <v>40</v>
+      </c>
+      <c r="M8" s="9">
+        <v>40</v>
+      </c>
+      <c r="N8" s="9">
+        <v>40</v>
+      </c>
+      <c r="O8" s="9">
+        <v>40</v>
+      </c>
+      <c r="P8" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>40</v>
+      </c>
+      <c r="R8" s="9">
+        <v>40</v>
+      </c>
+      <c r="S8" s="9">
         <v>40</v>
       </c>
       <c r="T8" s="6">
         <v>0</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>40</v>
       </c>
       <c r="V8" s="6">
@@ -1382,64 +1385,64 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="10">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10">
-        <v>40</v>
-      </c>
-      <c r="F9" s="10">
-        <v>40</v>
-      </c>
-      <c r="G9" s="10">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10">
-        <v>40</v>
-      </c>
-      <c r="I9" s="10">
-        <v>40</v>
-      </c>
-      <c r="J9" s="10">
-        <v>40</v>
-      </c>
-      <c r="K9" s="10">
-        <v>40</v>
-      </c>
-      <c r="L9" s="10">
-        <v>40</v>
-      </c>
-      <c r="M9" s="10">
-        <v>40</v>
-      </c>
-      <c r="N9" s="10">
-        <v>40</v>
-      </c>
-      <c r="O9" s="10">
-        <v>40</v>
-      </c>
-      <c r="P9" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>40</v>
-      </c>
-      <c r="R9" s="10">
-        <v>40</v>
-      </c>
-      <c r="S9" s="10">
+      <c r="D9" s="9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9">
+        <v>40</v>
+      </c>
+      <c r="I9" s="9">
+        <v>40</v>
+      </c>
+      <c r="J9" s="9">
+        <v>40</v>
+      </c>
+      <c r="K9" s="9">
+        <v>40</v>
+      </c>
+      <c r="L9" s="9">
+        <v>40</v>
+      </c>
+      <c r="M9" s="9">
+        <v>40</v>
+      </c>
+      <c r="N9" s="9">
+        <v>40</v>
+      </c>
+      <c r="O9" s="9">
+        <v>40</v>
+      </c>
+      <c r="P9" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>40</v>
+      </c>
+      <c r="R9" s="9">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9">
         <v>40</v>
       </c>
       <c r="T9" s="6">
         <v>0</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>40</v>
       </c>
       <c r="V9" s="6">
@@ -1486,64 +1489,64 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="10">
-        <v>40</v>
-      </c>
-      <c r="E10" s="10">
-        <v>40</v>
-      </c>
-      <c r="F10" s="10">
-        <v>40</v>
-      </c>
-      <c r="G10" s="10">
-        <v>40</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="D10" s="9">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="10">
-        <v>40</v>
-      </c>
-      <c r="J10" s="10">
-        <v>40</v>
-      </c>
-      <c r="K10" s="10">
-        <v>40</v>
-      </c>
-      <c r="L10" s="10">
-        <v>40</v>
-      </c>
-      <c r="M10" s="10">
-        <v>40</v>
-      </c>
-      <c r="N10" s="10">
-        <v>40</v>
-      </c>
-      <c r="O10" s="10">
-        <v>40</v>
-      </c>
-      <c r="P10" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>40</v>
-      </c>
-      <c r="R10" s="10">
-        <v>40</v>
-      </c>
-      <c r="S10" s="10">
+      <c r="I10" s="9">
+        <v>40</v>
+      </c>
+      <c r="J10" s="9">
+        <v>40</v>
+      </c>
+      <c r="K10" s="9">
+        <v>40</v>
+      </c>
+      <c r="L10" s="9">
+        <v>40</v>
+      </c>
+      <c r="M10" s="9">
+        <v>40</v>
+      </c>
+      <c r="N10" s="9">
+        <v>40</v>
+      </c>
+      <c r="O10" s="9">
+        <v>40</v>
+      </c>
+      <c r="P10" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>40</v>
+      </c>
+      <c r="R10" s="9">
+        <v>40</v>
+      </c>
+      <c r="S10" s="9">
         <v>40</v>
       </c>
       <c r="T10" s="6">
         <v>0</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>40</v>
       </c>
       <c r="V10" s="6">
@@ -1590,64 +1593,64 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="10">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="9">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9">
         <v>8</v>
       </c>
-      <c r="F11" s="10">
-        <v>40</v>
-      </c>
-      <c r="G11" s="10">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10">
-        <v>40</v>
-      </c>
-      <c r="I11" s="10">
-        <v>40</v>
-      </c>
-      <c r="J11" s="10">
-        <v>40</v>
-      </c>
-      <c r="K11" s="10">
-        <v>40</v>
-      </c>
-      <c r="L11" s="10">
-        <v>40</v>
-      </c>
-      <c r="M11" s="10">
-        <v>40</v>
-      </c>
-      <c r="N11" s="10">
-        <v>40</v>
-      </c>
-      <c r="O11" s="10">
-        <v>40</v>
-      </c>
-      <c r="P11" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>40</v>
-      </c>
-      <c r="R11" s="10">
-        <v>40</v>
-      </c>
-      <c r="S11" s="10">
+      <c r="F11" s="9">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9">
+        <v>40</v>
+      </c>
+      <c r="H11" s="9">
+        <v>40</v>
+      </c>
+      <c r="I11" s="9">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9">
+        <v>40</v>
+      </c>
+      <c r="K11" s="9">
+        <v>40</v>
+      </c>
+      <c r="L11" s="9">
+        <v>40</v>
+      </c>
+      <c r="M11" s="9">
+        <v>40</v>
+      </c>
+      <c r="N11" s="9">
+        <v>40</v>
+      </c>
+      <c r="O11" s="9">
+        <v>40</v>
+      </c>
+      <c r="P11" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>40</v>
+      </c>
+      <c r="R11" s="9">
+        <v>40</v>
+      </c>
+      <c r="S11" s="9">
         <v>40</v>
       </c>
       <c r="T11" s="6">
         <v>0</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>40</v>
       </c>
       <c r="V11" s="6">
@@ -1694,64 +1697,64 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10">
-        <v>40</v>
-      </c>
-      <c r="G12" s="10">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10">
-        <v>40</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="D12" s="9">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9">
+        <v>40</v>
+      </c>
+      <c r="I12" s="9">
         <v>9</v>
       </c>
-      <c r="J12" s="10">
-        <v>40</v>
-      </c>
-      <c r="K12" s="10">
-        <v>40</v>
-      </c>
-      <c r="L12" s="10">
-        <v>40</v>
-      </c>
-      <c r="M12" s="10">
-        <v>40</v>
-      </c>
-      <c r="N12" s="10">
-        <v>40</v>
-      </c>
-      <c r="O12" s="10">
-        <v>40</v>
-      </c>
-      <c r="P12" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>40</v>
-      </c>
-      <c r="R12" s="10">
-        <v>40</v>
-      </c>
-      <c r="S12" s="10">
+      <c r="J12" s="9">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9">
+        <v>40</v>
+      </c>
+      <c r="L12" s="9">
+        <v>40</v>
+      </c>
+      <c r="M12" s="9">
+        <v>40</v>
+      </c>
+      <c r="N12" s="9">
+        <v>40</v>
+      </c>
+      <c r="O12" s="9">
+        <v>40</v>
+      </c>
+      <c r="P12" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>40</v>
+      </c>
+      <c r="R12" s="9">
+        <v>40</v>
+      </c>
+      <c r="S12" s="9">
         <v>40</v>
       </c>
       <c r="T12" s="6">
         <v>0</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9">
         <v>40</v>
       </c>
       <c r="V12" s="6">
@@ -1798,64 +1801,64 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
-        <v>40</v>
-      </c>
-      <c r="E13" s="10">
-        <v>40</v>
-      </c>
-      <c r="F13" s="10">
-        <v>40</v>
-      </c>
-      <c r="G13" s="10">
-        <v>40</v>
-      </c>
-      <c r="H13" s="10">
-        <v>40</v>
-      </c>
-      <c r="I13" s="10">
-        <v>40</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="D13" s="9">
+        <v>40</v>
+      </c>
+      <c r="E13" s="9">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9">
+        <v>40</v>
+      </c>
+      <c r="H13" s="9">
+        <v>40</v>
+      </c>
+      <c r="I13" s="9">
+        <v>40</v>
+      </c>
+      <c r="J13" s="9">
         <v>10</v>
       </c>
-      <c r="K13" s="10">
-        <v>40</v>
-      </c>
-      <c r="L13" s="10">
-        <v>40</v>
-      </c>
-      <c r="M13" s="10">
-        <v>40</v>
-      </c>
-      <c r="N13" s="10">
-        <v>40</v>
-      </c>
-      <c r="O13" s="10">
-        <v>40</v>
-      </c>
-      <c r="P13" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>40</v>
-      </c>
-      <c r="R13" s="10">
-        <v>40</v>
-      </c>
-      <c r="S13" s="10">
+      <c r="K13" s="9">
+        <v>40</v>
+      </c>
+      <c r="L13" s="9">
+        <v>40</v>
+      </c>
+      <c r="M13" s="9">
+        <v>40</v>
+      </c>
+      <c r="N13" s="9">
+        <v>40</v>
+      </c>
+      <c r="O13" s="9">
+        <v>40</v>
+      </c>
+      <c r="P13" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>40</v>
+      </c>
+      <c r="R13" s="9">
+        <v>40</v>
+      </c>
+      <c r="S13" s="9">
         <v>40</v>
       </c>
       <c r="T13" s="6">
         <v>0</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="9">
         <v>40</v>
       </c>
       <c r="V13" s="6">
@@ -1902,64 +1905,64 @@
       <c r="A14" s="6">
         <v>21</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
-        <v>40</v>
-      </c>
-      <c r="E14" s="10">
-        <v>40</v>
-      </c>
-      <c r="F14" s="10">
-        <v>40</v>
-      </c>
-      <c r="G14" s="10">
-        <v>40</v>
-      </c>
-      <c r="H14" s="10">
-        <v>40</v>
-      </c>
-      <c r="I14" s="10">
-        <v>40</v>
-      </c>
-      <c r="J14" s="10">
-        <v>40</v>
-      </c>
-      <c r="K14" s="10">
-        <v>40</v>
-      </c>
-      <c r="L14" s="10">
-        <v>40</v>
-      </c>
-      <c r="M14" s="10">
-        <v>40</v>
-      </c>
-      <c r="N14" s="10">
-        <v>40</v>
-      </c>
-      <c r="O14" s="10">
-        <v>40</v>
-      </c>
-      <c r="P14" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>40</v>
-      </c>
-      <c r="R14" s="10">
-        <v>40</v>
-      </c>
-      <c r="S14" s="10">
+      <c r="D14" s="9">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9">
+        <v>40</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9">
+        <v>40</v>
+      </c>
+      <c r="J14" s="9">
+        <v>40</v>
+      </c>
+      <c r="K14" s="9">
+        <v>40</v>
+      </c>
+      <c r="L14" s="9">
+        <v>40</v>
+      </c>
+      <c r="M14" s="9">
+        <v>40</v>
+      </c>
+      <c r="N14" s="9">
+        <v>40</v>
+      </c>
+      <c r="O14" s="9">
+        <v>40</v>
+      </c>
+      <c r="P14" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>40</v>
+      </c>
+      <c r="R14" s="9">
+        <v>40</v>
+      </c>
+      <c r="S14" s="9">
         <v>40</v>
       </c>
       <c r="T14" s="6">
         <v>0</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9">
         <v>40</v>
       </c>
       <c r="V14" s="6">
@@ -2006,64 +2009,64 @@
       <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="10">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10">
-        <v>40</v>
-      </c>
-      <c r="G15" s="10">
-        <v>40</v>
-      </c>
-      <c r="H15" s="10">
-        <v>40</v>
-      </c>
-      <c r="I15" s="10">
-        <v>40</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="D15" s="9">
+        <v>40</v>
+      </c>
+      <c r="E15" s="9">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9">
+        <v>40</v>
+      </c>
+      <c r="H15" s="9">
+        <v>40</v>
+      </c>
+      <c r="I15" s="9">
+        <v>40</v>
+      </c>
+      <c r="J15" s="9">
         <v>12</v>
       </c>
-      <c r="K15" s="10">
-        <v>40</v>
-      </c>
-      <c r="L15" s="10">
-        <v>40</v>
-      </c>
-      <c r="M15" s="10">
-        <v>40</v>
-      </c>
-      <c r="N15" s="10">
-        <v>40</v>
-      </c>
-      <c r="O15" s="10">
-        <v>40</v>
-      </c>
-      <c r="P15" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>40</v>
-      </c>
-      <c r="R15" s="10">
-        <v>40</v>
-      </c>
-      <c r="S15" s="10">
+      <c r="K15" s="9">
+        <v>40</v>
+      </c>
+      <c r="L15" s="9">
+        <v>40</v>
+      </c>
+      <c r="M15" s="9">
+        <v>40</v>
+      </c>
+      <c r="N15" s="9">
+        <v>40</v>
+      </c>
+      <c r="O15" s="9">
+        <v>40</v>
+      </c>
+      <c r="P15" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>40</v>
+      </c>
+      <c r="R15" s="9">
+        <v>40</v>
+      </c>
+      <c r="S15" s="9">
         <v>40</v>
       </c>
       <c r="T15" s="6">
         <v>0</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>40</v>
       </c>
       <c r="V15" s="6">
@@ -2110,64 +2113,64 @@
       <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="10">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10">
-        <v>40</v>
-      </c>
-      <c r="F16" s="10">
-        <v>40</v>
-      </c>
-      <c r="G16" s="10">
-        <v>40</v>
-      </c>
-      <c r="H16" s="10">
-        <v>40</v>
-      </c>
-      <c r="I16" s="10">
-        <v>40</v>
-      </c>
-      <c r="J16" s="10">
-        <v>40</v>
-      </c>
-      <c r="K16" s="10">
-        <v>40</v>
-      </c>
-      <c r="L16" s="10">
+      <c r="D16" s="9">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9">
+        <v>40</v>
+      </c>
+      <c r="F16" s="9">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9">
+        <v>40</v>
+      </c>
+      <c r="H16" s="9">
+        <v>40</v>
+      </c>
+      <c r="I16" s="9">
+        <v>40</v>
+      </c>
+      <c r="J16" s="9">
+        <v>40</v>
+      </c>
+      <c r="K16" s="9">
+        <v>40</v>
+      </c>
+      <c r="L16" s="9">
         <v>13</v>
       </c>
-      <c r="M16" s="10">
-        <v>40</v>
-      </c>
-      <c r="N16" s="10">
-        <v>40</v>
-      </c>
-      <c r="O16" s="10">
-        <v>40</v>
-      </c>
-      <c r="P16" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>40</v>
-      </c>
-      <c r="R16" s="10">
-        <v>40</v>
-      </c>
-      <c r="S16" s="10">
+      <c r="M16" s="9">
+        <v>40</v>
+      </c>
+      <c r="N16" s="9">
+        <v>40</v>
+      </c>
+      <c r="O16" s="9">
+        <v>40</v>
+      </c>
+      <c r="P16" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>40</v>
+      </c>
+      <c r="R16" s="9">
+        <v>40</v>
+      </c>
+      <c r="S16" s="9">
         <v>40</v>
       </c>
       <c r="T16" s="6">
         <v>0</v>
       </c>
-      <c r="U16" s="10">
+      <c r="U16" s="9">
         <v>40</v>
       </c>
       <c r="V16" s="6">
@@ -2214,64 +2217,64 @@
       <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>13</v>
       </c>
-      <c r="D17" s="10">
-        <v>40</v>
-      </c>
-      <c r="E17" s="10">
-        <v>40</v>
-      </c>
-      <c r="F17" s="10">
-        <v>40</v>
-      </c>
-      <c r="G17" s="10">
-        <v>40</v>
-      </c>
-      <c r="H17" s="10">
-        <v>40</v>
-      </c>
-      <c r="I17" s="10">
-        <v>40</v>
-      </c>
-      <c r="J17" s="10">
-        <v>40</v>
-      </c>
-      <c r="K17" s="10">
-        <v>40</v>
-      </c>
-      <c r="L17" s="10">
-        <v>40</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="D17" s="9">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9">
+        <v>40</v>
+      </c>
+      <c r="H17" s="9">
+        <v>40</v>
+      </c>
+      <c r="I17" s="9">
+        <v>40</v>
+      </c>
+      <c r="J17" s="9">
+        <v>40</v>
+      </c>
+      <c r="K17" s="9">
+        <v>40</v>
+      </c>
+      <c r="L17" s="9">
+        <v>40</v>
+      </c>
+      <c r="M17" s="9">
         <v>14</v>
       </c>
-      <c r="N17" s="10">
-        <v>40</v>
-      </c>
-      <c r="O17" s="10">
-        <v>40</v>
-      </c>
-      <c r="P17" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>40</v>
-      </c>
-      <c r="R17" s="10">
-        <v>40</v>
-      </c>
-      <c r="S17" s="10">
+      <c r="N17" s="9">
+        <v>40</v>
+      </c>
+      <c r="O17" s="9">
+        <v>40</v>
+      </c>
+      <c r="P17" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>40</v>
+      </c>
+      <c r="R17" s="9">
+        <v>40</v>
+      </c>
+      <c r="S17" s="9">
         <v>40</v>
       </c>
       <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="9">
         <v>40</v>
       </c>
       <c r="V17" s="6">
@@ -2318,64 +2321,64 @@
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>14</v>
       </c>
-      <c r="D18" s="10">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10">
-        <v>40</v>
-      </c>
-      <c r="F18" s="10">
-        <v>40</v>
-      </c>
-      <c r="G18" s="10">
-        <v>40</v>
-      </c>
-      <c r="H18" s="10">
-        <v>40</v>
-      </c>
-      <c r="I18" s="10">
-        <v>40</v>
-      </c>
-      <c r="J18" s="10">
-        <v>40</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="D18" s="9">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9">
+        <v>40</v>
+      </c>
+      <c r="F18" s="9">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9">
+        <v>40</v>
+      </c>
+      <c r="H18" s="9">
+        <v>40</v>
+      </c>
+      <c r="I18" s="9">
+        <v>40</v>
+      </c>
+      <c r="J18" s="9">
+        <v>40</v>
+      </c>
+      <c r="K18" s="9">
         <v>15</v>
       </c>
-      <c r="L18" s="10">
-        <v>40</v>
-      </c>
-      <c r="M18" s="10">
-        <v>40</v>
-      </c>
-      <c r="N18" s="10">
-        <v>40</v>
-      </c>
-      <c r="O18" s="10">
-        <v>40</v>
-      </c>
-      <c r="P18" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>40</v>
-      </c>
-      <c r="R18" s="10">
-        <v>40</v>
-      </c>
-      <c r="S18" s="10">
+      <c r="L18" s="9">
+        <v>40</v>
+      </c>
+      <c r="M18" s="9">
+        <v>40</v>
+      </c>
+      <c r="N18" s="9">
+        <v>40</v>
+      </c>
+      <c r="O18" s="9">
+        <v>40</v>
+      </c>
+      <c r="P18" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>40</v>
+      </c>
+      <c r="R18" s="9">
+        <v>40</v>
+      </c>
+      <c r="S18" s="9">
         <v>40</v>
       </c>
       <c r="T18" s="6">
         <v>0</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="9">
         <v>40</v>
       </c>
       <c r="V18" s="6">
@@ -2422,64 +2425,64 @@
       <c r="A19" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="5">
         <v>15</v>
       </c>
-      <c r="D19" s="10">
-        <v>40</v>
-      </c>
-      <c r="E19" s="10">
-        <v>40</v>
-      </c>
-      <c r="F19" s="10">
-        <v>40</v>
-      </c>
-      <c r="G19" s="10">
-        <v>40</v>
-      </c>
-      <c r="H19" s="10">
-        <v>40</v>
-      </c>
-      <c r="I19" s="10">
-        <v>40</v>
-      </c>
-      <c r="J19" s="10">
-        <v>40</v>
-      </c>
-      <c r="K19" s="10">
-        <v>40</v>
-      </c>
-      <c r="L19" s="10">
-        <v>40</v>
-      </c>
-      <c r="M19" s="10">
-        <v>40</v>
-      </c>
-      <c r="N19" s="10">
+      <c r="D19" s="9">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9">
+        <v>40</v>
+      </c>
+      <c r="H19" s="9">
+        <v>40</v>
+      </c>
+      <c r="I19" s="9">
+        <v>40</v>
+      </c>
+      <c r="J19" s="9">
+        <v>40</v>
+      </c>
+      <c r="K19" s="9">
+        <v>40</v>
+      </c>
+      <c r="L19" s="9">
+        <v>40</v>
+      </c>
+      <c r="M19" s="9">
+        <v>40</v>
+      </c>
+      <c r="N19" s="9">
         <v>16</v>
       </c>
-      <c r="O19" s="10">
-        <v>40</v>
-      </c>
-      <c r="P19" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>40</v>
-      </c>
-      <c r="R19" s="10">
-        <v>40</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="O19" s="9">
+        <v>40</v>
+      </c>
+      <c r="P19" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>40</v>
+      </c>
+      <c r="R19" s="9">
+        <v>40</v>
+      </c>
+      <c r="S19" s="9">
         <v>40</v>
       </c>
       <c r="T19" s="6">
         <v>0</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <v>40</v>
       </c>
       <c r="V19" s="6">
@@ -2526,64 +2529,64 @@
       <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="10">
-        <v>40</v>
-      </c>
-      <c r="E20" s="10">
-        <v>40</v>
-      </c>
-      <c r="F20" s="10">
-        <v>40</v>
-      </c>
-      <c r="G20" s="10">
-        <v>40</v>
-      </c>
-      <c r="H20" s="10">
-        <v>40</v>
-      </c>
-      <c r="I20" s="10">
-        <v>40</v>
-      </c>
-      <c r="J20" s="10">
-        <v>40</v>
-      </c>
-      <c r="K20" s="10">
-        <v>40</v>
-      </c>
-      <c r="L20" s="10">
-        <v>40</v>
-      </c>
-      <c r="M20" s="10">
-        <v>40</v>
-      </c>
-      <c r="N20" s="10">
-        <v>40</v>
-      </c>
-      <c r="O20" s="10">
-        <v>40</v>
-      </c>
-      <c r="P20" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>40</v>
-      </c>
-      <c r="R20" s="10">
-        <v>40</v>
-      </c>
-      <c r="S20" s="10">
+      <c r="D20" s="9">
+        <v>40</v>
+      </c>
+      <c r="E20" s="9">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9">
+        <v>40</v>
+      </c>
+      <c r="H20" s="9">
+        <v>40</v>
+      </c>
+      <c r="I20" s="9">
+        <v>40</v>
+      </c>
+      <c r="J20" s="9">
+        <v>40</v>
+      </c>
+      <c r="K20" s="9">
+        <v>40</v>
+      </c>
+      <c r="L20" s="9">
+        <v>40</v>
+      </c>
+      <c r="M20" s="9">
+        <v>40</v>
+      </c>
+      <c r="N20" s="9">
+        <v>40</v>
+      </c>
+      <c r="O20" s="9">
+        <v>40</v>
+      </c>
+      <c r="P20" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>40</v>
+      </c>
+      <c r="R20" s="9">
+        <v>40</v>
+      </c>
+      <c r="S20" s="9">
         <v>40</v>
       </c>
       <c r="T20" s="6">
         <v>0</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <v>40</v>
       </c>
       <c r="V20" s="6">
@@ -2630,64 +2633,64 @@
       <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="5">
         <v>17</v>
       </c>
-      <c r="D21" s="10">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10">
-        <v>40</v>
-      </c>
-      <c r="F21" s="10">
-        <v>40</v>
-      </c>
-      <c r="G21" s="10">
-        <v>40</v>
-      </c>
-      <c r="H21" s="10">
-        <v>40</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="D21" s="9">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9">
+        <v>40</v>
+      </c>
+      <c r="H21" s="9">
+        <v>40</v>
+      </c>
+      <c r="I21" s="9">
         <v>18</v>
       </c>
-      <c r="J21" s="10">
-        <v>40</v>
-      </c>
-      <c r="K21" s="10">
-        <v>40</v>
-      </c>
-      <c r="L21" s="10">
-        <v>40</v>
-      </c>
-      <c r="M21" s="10">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10">
-        <v>40</v>
-      </c>
-      <c r="O21" s="10">
-        <v>40</v>
-      </c>
-      <c r="P21" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>40</v>
-      </c>
-      <c r="R21" s="10">
-        <v>40</v>
-      </c>
-      <c r="S21" s="10">
+      <c r="J21" s="9">
+        <v>40</v>
+      </c>
+      <c r="K21" s="9">
+        <v>40</v>
+      </c>
+      <c r="L21" s="9">
+        <v>40</v>
+      </c>
+      <c r="M21" s="9">
+        <v>40</v>
+      </c>
+      <c r="N21" s="9">
+        <v>40</v>
+      </c>
+      <c r="O21" s="9">
+        <v>40</v>
+      </c>
+      <c r="P21" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>40</v>
+      </c>
+      <c r="R21" s="9">
+        <v>40</v>
+      </c>
+      <c r="S21" s="9">
         <v>40</v>
       </c>
       <c r="T21" s="6">
         <v>0</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="9">
         <v>40</v>
       </c>
       <c r="V21" s="6">
@@ -2734,64 +2737,64 @@
       <c r="A22" s="6">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="5">
         <v>18</v>
       </c>
-      <c r="D22" s="10">
-        <v>40</v>
-      </c>
-      <c r="E22" s="10">
-        <v>40</v>
-      </c>
-      <c r="F22" s="10">
-        <v>40</v>
-      </c>
-      <c r="G22" s="10">
-        <v>40</v>
-      </c>
-      <c r="H22" s="10">
-        <v>40</v>
-      </c>
-      <c r="I22" s="10">
-        <v>40</v>
-      </c>
-      <c r="J22" s="10">
-        <v>40</v>
-      </c>
-      <c r="K22" s="10">
-        <v>40</v>
-      </c>
-      <c r="L22" s="10">
-        <v>40</v>
-      </c>
-      <c r="M22" s="10">
-        <v>40</v>
-      </c>
-      <c r="N22" s="10">
-        <v>40</v>
-      </c>
-      <c r="O22" s="10">
-        <v>40</v>
-      </c>
-      <c r="P22" s="10">
+      <c r="D22" s="9">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9">
+        <v>40</v>
+      </c>
+      <c r="G22" s="9">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9">
+        <v>40</v>
+      </c>
+      <c r="J22" s="9">
+        <v>40</v>
+      </c>
+      <c r="K22" s="9">
+        <v>40</v>
+      </c>
+      <c r="L22" s="9">
+        <v>40</v>
+      </c>
+      <c r="M22" s="9">
+        <v>40</v>
+      </c>
+      <c r="N22" s="9">
+        <v>40</v>
+      </c>
+      <c r="O22" s="9">
+        <v>40</v>
+      </c>
+      <c r="P22" s="9">
         <v>19</v>
       </c>
-      <c r="Q22" s="10">
-        <v>40</v>
-      </c>
-      <c r="R22" s="10">
-        <v>40</v>
-      </c>
-      <c r="S22" s="10">
+      <c r="Q22" s="9">
+        <v>40</v>
+      </c>
+      <c r="R22" s="9">
+        <v>40</v>
+      </c>
+      <c r="S22" s="9">
         <v>40</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="9">
         <v>40</v>
       </c>
       <c r="V22" s="6">
@@ -2838,64 +2841,64 @@
       <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="5">
         <v>19</v>
       </c>
-      <c r="D23" s="10">
-        <v>40</v>
-      </c>
-      <c r="E23" s="10">
-        <v>40</v>
-      </c>
-      <c r="F23" s="10">
-        <v>40</v>
-      </c>
-      <c r="G23" s="10">
-        <v>40</v>
-      </c>
-      <c r="H23" s="10">
-        <v>40</v>
-      </c>
-      <c r="I23" s="10">
-        <v>40</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="D23" s="9">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9">
+        <v>40</v>
+      </c>
+      <c r="G23" s="9">
+        <v>40</v>
+      </c>
+      <c r="H23" s="9">
+        <v>40</v>
+      </c>
+      <c r="I23" s="9">
+        <v>40</v>
+      </c>
+      <c r="J23" s="9">
         <v>20</v>
       </c>
-      <c r="K23" s="10">
-        <v>40</v>
-      </c>
-      <c r="L23" s="10">
-        <v>40</v>
-      </c>
-      <c r="M23" s="10">
-        <v>40</v>
-      </c>
-      <c r="N23" s="10">
-        <v>40</v>
-      </c>
-      <c r="O23" s="10">
-        <v>40</v>
-      </c>
-      <c r="P23" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>40</v>
-      </c>
-      <c r="R23" s="10">
-        <v>40</v>
-      </c>
-      <c r="S23" s="10">
+      <c r="K23" s="9">
+        <v>40</v>
+      </c>
+      <c r="L23" s="9">
+        <v>40</v>
+      </c>
+      <c r="M23" s="9">
+        <v>40</v>
+      </c>
+      <c r="N23" s="9">
+        <v>40</v>
+      </c>
+      <c r="O23" s="9">
+        <v>40</v>
+      </c>
+      <c r="P23" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>40</v>
+      </c>
+      <c r="R23" s="9">
+        <v>40</v>
+      </c>
+      <c r="S23" s="9">
         <v>40</v>
       </c>
       <c r="T23" s="6">
         <v>0</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <v>40</v>
       </c>
       <c r="V23" s="6">
@@ -2942,64 +2945,64 @@
       <c r="A24" s="6">
         <v>4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="5">
         <v>20</v>
       </c>
-      <c r="D24" s="10">
-        <v>40</v>
-      </c>
-      <c r="E24" s="10">
-        <v>40</v>
-      </c>
-      <c r="F24" s="10">
-        <v>40</v>
-      </c>
-      <c r="G24" s="10">
-        <v>40</v>
-      </c>
-      <c r="H24" s="10">
-        <v>40</v>
-      </c>
-      <c r="I24" s="10">
-        <v>40</v>
-      </c>
-      <c r="J24" s="10">
-        <v>40</v>
-      </c>
-      <c r="K24" s="10">
-        <v>40</v>
-      </c>
-      <c r="L24" s="10">
-        <v>40</v>
-      </c>
-      <c r="M24" s="10">
-        <v>40</v>
-      </c>
-      <c r="N24" s="10">
-        <v>40</v>
-      </c>
-      <c r="O24" s="10">
-        <v>40</v>
-      </c>
-      <c r="P24" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>40</v>
-      </c>
-      <c r="R24" s="10">
-        <v>40</v>
-      </c>
-      <c r="S24" s="10">
+      <c r="D24" s="9">
+        <v>40</v>
+      </c>
+      <c r="E24" s="9">
+        <v>40</v>
+      </c>
+      <c r="F24" s="9">
+        <v>40</v>
+      </c>
+      <c r="G24" s="9">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9">
+        <v>40</v>
+      </c>
+      <c r="I24" s="9">
+        <v>40</v>
+      </c>
+      <c r="J24" s="9">
+        <v>40</v>
+      </c>
+      <c r="K24" s="9">
+        <v>40</v>
+      </c>
+      <c r="L24" s="9">
+        <v>40</v>
+      </c>
+      <c r="M24" s="9">
+        <v>40</v>
+      </c>
+      <c r="N24" s="9">
+        <v>40</v>
+      </c>
+      <c r="O24" s="9">
+        <v>40</v>
+      </c>
+      <c r="P24" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>40</v>
+      </c>
+      <c r="R24" s="9">
+        <v>40</v>
+      </c>
+      <c r="S24" s="9">
         <v>40</v>
       </c>
       <c r="T24" s="6">
         <v>0</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <v>40</v>
       </c>
       <c r="V24" s="6">
@@ -3247,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5">
         <v>23</v>
@@ -3351,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5">
         <v>24</v>
@@ -3455,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5">
         <v>25</v>
@@ -3520,10 +3523,10 @@
       <c r="W29" s="6">
         <v>24</v>
       </c>
-      <c r="X29" s="10">
+      <c r="X29" s="9">
         <v>25</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="9">
         <v>26</v>
       </c>
       <c r="Z29" s="6">
@@ -3559,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5">
         <v>26</v>
@@ -3767,7 +3770,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5">
         <v>28</v>
@@ -3975,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5">
         <v>30</v>
@@ -4079,7 +4082,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5">
         <v>31</v>
@@ -4147,7 +4150,7 @@
       <c r="X35" s="6">
         <v>25</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y35" s="9">
         <v>32</v>
       </c>
       <c r="Z35" s="6">
@@ -4183,7 +4186,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5">
         <v>32</v>
@@ -4287,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5">
         <v>33</v>
@@ -4355,7 +4358,7 @@
       <c r="X37" s="6">
         <v>25</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Y37" s="9">
         <v>32</v>
       </c>
       <c r="Z37" s="6">
@@ -4391,7 +4394,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5">
         <v>34</v>
@@ -4495,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="5">
         <v>35</v>
@@ -4599,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5">
         <v>36</v>
@@ -4703,7 +4706,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5">
         <v>37</v>
@@ -4803,167 +4806,171 @@
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4">
-        <v>0</v>
-      </c>
-      <c r="U42" s="4">
-        <v>0</v>
-      </c>
-      <c r="V42" s="4">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="4">
-        <v>0</v>
+      <c r="A42" s="6">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>38</v>
+      </c>
+      <c r="D42" s="6">
+        <v>38</v>
+      </c>
+      <c r="E42" s="6">
+        <v>38</v>
+      </c>
+      <c r="F42" s="6">
+        <v>38</v>
+      </c>
+      <c r="G42" s="6">
+        <v>38</v>
+      </c>
+      <c r="H42" s="6">
+        <v>38</v>
+      </c>
+      <c r="I42" s="6">
+        <v>38</v>
+      </c>
+      <c r="J42" s="6">
+        <v>38</v>
+      </c>
+      <c r="K42" s="6">
+        <v>38</v>
+      </c>
+      <c r="L42" s="6">
+        <v>38</v>
+      </c>
+      <c r="M42" s="6">
+        <v>38</v>
+      </c>
+      <c r="N42" s="6">
+        <v>38</v>
+      </c>
+      <c r="O42" s="6">
+        <v>38</v>
+      </c>
+      <c r="P42" s="6">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>38</v>
+      </c>
+      <c r="R42" s="6">
+        <v>38</v>
+      </c>
+      <c r="S42" s="6">
+        <v>38</v>
+      </c>
+      <c r="T42" s="6">
+        <v>38</v>
+      </c>
+      <c r="U42" s="6">
+        <v>38</v>
+      </c>
+      <c r="V42" s="6">
+        <v>38</v>
+      </c>
+      <c r="W42" s="6">
+        <v>38</v>
+      </c>
+      <c r="X42" s="6">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>38</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>38</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
       </c>
       <c r="C43" s="5">
-        <v>40</v>
-      </c>
-      <c r="D43" s="10">
-        <v>40</v>
-      </c>
-      <c r="E43" s="10">
-        <v>40</v>
-      </c>
-      <c r="F43" s="10">
-        <v>40</v>
-      </c>
-      <c r="G43" s="10">
-        <v>40</v>
-      </c>
-      <c r="H43" s="10">
-        <v>40</v>
-      </c>
-      <c r="I43" s="10">
-        <v>40</v>
-      </c>
-      <c r="J43" s="10">
-        <v>40</v>
-      </c>
-      <c r="K43" s="10">
-        <v>40</v>
-      </c>
-      <c r="L43" s="10">
-        <v>40</v>
-      </c>
-      <c r="M43" s="10">
-        <v>40</v>
-      </c>
-      <c r="N43" s="10">
-        <v>40</v>
-      </c>
-      <c r="O43" s="10">
-        <v>40</v>
-      </c>
-      <c r="P43" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>40</v>
-      </c>
-      <c r="R43" s="10">
-        <v>40</v>
-      </c>
-      <c r="S43" s="10">
+        <v>39</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6">
+        <v>6</v>
+      </c>
+      <c r="H43" s="6">
+        <v>40</v>
+      </c>
+      <c r="I43" s="6">
+        <v>40</v>
+      </c>
+      <c r="J43" s="6">
+        <v>17</v>
+      </c>
+      <c r="K43" s="6">
+        <v>11</v>
+      </c>
+      <c r="L43" s="6">
+        <v>40</v>
+      </c>
+      <c r="M43" s="6">
+        <v>40</v>
+      </c>
+      <c r="N43" s="6">
+        <v>40</v>
+      </c>
+      <c r="O43" s="6">
+        <v>40</v>
+      </c>
+      <c r="P43" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>40</v>
+      </c>
+      <c r="R43" s="6">
+        <v>40</v>
+      </c>
+      <c r="S43" s="6">
         <v>40</v>
       </c>
       <c r="T43" s="6">
         <v>0</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="6">
         <v>40</v>
       </c>
       <c r="V43" s="6">
@@ -5008,142 +5015,112 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="6">
-        <v>38</v>
-      </c>
-      <c r="E44" s="6">
-        <v>38</v>
-      </c>
-      <c r="F44" s="6">
-        <v>38</v>
-      </c>
-      <c r="G44" s="6">
-        <v>38</v>
-      </c>
-      <c r="H44" s="6">
-        <v>38</v>
-      </c>
-      <c r="I44" s="6">
-        <v>38</v>
-      </c>
-      <c r="J44" s="6">
-        <v>38</v>
-      </c>
-      <c r="K44" s="6">
-        <v>38</v>
-      </c>
-      <c r="L44" s="6">
-        <v>38</v>
-      </c>
-      <c r="M44" s="6">
-        <v>38</v>
-      </c>
-      <c r="N44" s="6">
-        <v>38</v>
-      </c>
-      <c r="O44" s="6">
-        <v>38</v>
-      </c>
-      <c r="P44" s="6">
-        <v>38</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>38</v>
-      </c>
-      <c r="R44" s="6">
-        <v>38</v>
-      </c>
-      <c r="S44" s="6">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="5">
+        <v>40</v>
+      </c>
+      <c r="D44" s="9">
+        <v>40</v>
+      </c>
+      <c r="E44" s="9">
+        <v>40</v>
+      </c>
+      <c r="F44" s="9">
+        <v>40</v>
+      </c>
+      <c r="G44" s="9">
+        <v>40</v>
+      </c>
+      <c r="H44" s="9">
+        <v>40</v>
+      </c>
+      <c r="I44" s="9">
+        <v>40</v>
+      </c>
+      <c r="J44" s="9">
+        <v>40</v>
+      </c>
+      <c r="K44" s="9">
+        <v>40</v>
+      </c>
+      <c r="L44" s="9">
+        <v>40</v>
+      </c>
+      <c r="M44" s="9">
+        <v>40</v>
+      </c>
+      <c r="N44" s="9">
+        <v>40</v>
+      </c>
+      <c r="O44" s="9">
+        <v>40</v>
+      </c>
+      <c r="P44" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>40</v>
+      </c>
+      <c r="R44" s="9">
+        <v>40</v>
+      </c>
+      <c r="S44" s="9">
+        <v>40</v>
       </c>
       <c r="T44" s="6">
-        <v>38</v>
-      </c>
-      <c r="U44" s="6">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="U44" s="9">
+        <v>40</v>
       </c>
       <c r="V44" s="6">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="W44" s="6">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="X44" s="6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="Y44" s="6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Z44" s="6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AA44" s="6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AB44" s="6">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AC44" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD44" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE44" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF44" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG44" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AH44" s="6">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH44">
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="8" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="11" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="14" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
-    <filterColumn colId="17" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
-    <filterColumn colId="20" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-    <filterColumn colId="22" showButton="0"/>
-    <filterColumn colId="23" showButton="0"/>
-    <filterColumn colId="24" showButton="0"/>
-    <filterColumn colId="25" showButton="0"/>
-    <filterColumn colId="26" showButton="0"/>
-    <filterColumn colId="27" showButton="0"/>
-    <filterColumn colId="28" showButton="0"/>
-    <filterColumn colId="29" showButton="0"/>
-    <filterColumn colId="30" showButton="0"/>
-    <filterColumn colId="31" showButton="0"/>
-    <filterColumn colId="32" showButton="0"/>
-    <sortState ref="A2:AH44">
-      <sortCondition ref="C1:C44"/>
+  <autoFilter ref="A3:AH44">
+    <sortState ref="A4:AH44">
+      <sortCondition ref="C3:C44"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
